--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliobotero/Dropbox/SUAVE/SUAVE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A6F759-9A34-CF40-A6CC-63C213E0ED67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D57F542-575B-1F45-9EA4-CA14A9D0F942}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18820" yWindow="500" windowWidth="17960" windowHeight="17440" xr2:uid="{046A4ECD-B913-D647-AEA1-3714B5C9A77F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{046A4ECD-B913-D647-AEA1-3714B5C9A77F}"/>
   </bookViews>
   <sheets>
     <sheet name="B_T_W only" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>VSP</t>
   </si>
@@ -49,7 +49,10 @@
     <t>SUAVE (25x10 Span Cos)</t>
   </si>
   <si>
-    <t>VORLAX</t>
+    <t>VORLAX (6 SW per panel x 10) Linear</t>
+  </si>
+  <si>
+    <t>VORLAX (6 SW per panel x 10) Cosine SW</t>
   </si>
 </sst>
 </file>
@@ -73,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -81,15 +84,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -105,6 +177,3997 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1.4</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>VSP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$B$5:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$C$5:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-2.1729999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9979999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27971000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37605</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46911999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-04EB-F44B-9AEA-9AECBADB2711}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SUAVE Linear</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$B$5:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$E$5:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-3.3139509999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3907710000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16036454</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25541039999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34823971999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43807051000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-04EB-F44B-9AEA-9AECBADB2711}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SUAVE COS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$B$5:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$G$5:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-6.2357009999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0793220000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20330005000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33403559999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46189086000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58578739999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-04EB-F44B-9AEA-9AECBADB2711}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>VORLAX Linear</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$B$5:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$I$5:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.7049999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2529999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16142000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.249</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33448</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41715999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-04EB-F44B-9AEA-9AECBADB2711}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>VORLAX COS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$B$5:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$K$5:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.7309999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3819999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16438</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25352999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34055000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42471999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-04EB-F44B-9AEA-9AECBADB2711}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1974359823"/>
+        <c:axId val="1975689743"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1974359823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1975689743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1975689743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1974359823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1.6</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>VSP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$B$11:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$C$11:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-2.1569999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19646</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30284</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40627000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50527999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6625-3641-97CD-D4CC85B6431C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SUAVE Linear</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$B$11:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$E$11:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-2.5938039999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2089909999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14956632</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23574700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31990153999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40132103000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6625-3641-97CD-D4CC85B6431C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SUAVE COS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$B$11:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$G$11:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-5.2408759999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8187810000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18818536999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30656254999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42231517000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53446693000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6625-3641-97CD-D4CC85B6431C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>VORLAX Linear</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$B$11:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$I$11:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.567E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9889999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15490000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23859</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32025999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39928000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6625-3641-97CD-D4CC85B6431C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>VORLAX COS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$B$11:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$K$11:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.602E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9779999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15501000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23882999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39989999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6625-3641-97CD-D4CC85B6431C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1974359823"/>
+        <c:axId val="1975689743"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1974359823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1975689743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1975689743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1974359823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1.8</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>VSP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$B$17:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$C$17:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-2.0740000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7320000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.654E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.22012000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.98497999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.51145</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-1764-EB45-8539-1D47E489C592}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SUAVE Linear</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$B$11:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$E$11:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-2.5938039999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2089909999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14956632</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23574700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31990153999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40132103000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-1764-EB45-8539-1D47E489C592}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SUAVE COS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$B$17:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$G$17:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-4.6034499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3889890000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17323881999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28108165000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38650379000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48861636000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-1764-EB45-8539-1D47E489C592}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>VORLAX Linear</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$B$17:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$I$17:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.3310000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.454E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14185</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21795999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29210999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36392000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-1764-EB45-8539-1D47E489C592}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>VORLAX COS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$B$17:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$K$17:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.328E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3089999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13894000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21360999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28648000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35697000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-1764-EB45-8539-1D47E489C592}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1974359823"/>
+        <c:axId val="1975689743"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1974359823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1975689743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1975689743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1974359823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2.0</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$B$23:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$C$23:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-2.1239999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1139999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0939999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.11745999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.68852999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.85893</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E612-804D-987D-2B0BF74B4A78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SUAVE Linear</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$B$11:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$E$11:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-2.5938039999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2089909999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14956632</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23574700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31990153999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40132103000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E612-804D-987D-2B0BF74B4A78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$B$23:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$G$23:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-4.1025909999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1224180000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14297926</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23345857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32189496000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40754301999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E612-804D-987D-2B0BF74B4A78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$B$23:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$I$23:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.1990000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6820000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12515000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19242000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25806000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32155</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E612-804D-987D-2B0BF74B4A78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$B$23:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$K$23:$K$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.18E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5620000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12257</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18848000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25280000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31501000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E612-804D-987D-2B0BF74B4A78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1974359823"/>
+        <c:axId val="1975689743"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1974359823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1975689743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1975689743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1974359823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D10C040D-5A68-F94C-8009-FAAE66573E73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>334818</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>69272</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>779318</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>175491</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF1AEB65-49B4-8448-AE53-DA9F8636E44A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>161637</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>46182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>606136</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F3C29D3-3960-E944-8D5B-22E9A2A1D72E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>300182</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>744681</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>36946</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{303C3831-AD94-334C-8933-8C9C1BA25FCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -404,688 +4467,996 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C028EC-C8DA-F948-B065-6EF1D4A0FEB8}">
-  <dimension ref="A3:I28"/>
+  <dimension ref="A3:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="I4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1.4</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>-2.1729999999999999E-2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>7.2000000000000005E-4</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>-3.3139509999999997E-2</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>1.3131799999999999E-3</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>-6.2357009999999997E-2</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4">
         <v>3.3888299999999998E-3</v>
       </c>
+      <c r="I5" s="3">
+        <v>-1.7049999999999999E-2</v>
+      </c>
+      <c r="J5" s="4">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="K5" s="3">
+        <v>-1.7309999999999999E-2</v>
+      </c>
+      <c r="L5" s="4">
+        <v>5.6999999999999998E-4</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1.4</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>7.9979999999999996E-2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>2.2100000000000002E-3</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>6.3907710000000006E-2</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>1.8882599999999999E-3</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>7.0793220000000004E-2</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>2.0804299999999999E-3</v>
       </c>
+      <c r="I6" s="3">
+        <v>7.2529999999999997E-2</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2.0600000000000002E-3</v>
+      </c>
+      <c r="K6" s="3">
+        <v>7.3819999999999997E-2</v>
+      </c>
+      <c r="L6" s="4">
+        <v>2.0799999999999998E-3</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1.4</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>0.18079999999999999</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>1.077E-2</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>0.16036454</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>9.2141399999999991E-3</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>0.20330005000000001</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <v>1.0044340000000001E-2</v>
       </c>
+      <c r="I7" s="3">
+        <v>0.16142000000000001</v>
+      </c>
+      <c r="J7" s="4">
+        <v>9.75E-3</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.16438</v>
+      </c>
+      <c r="L7" s="4">
+        <v>9.9299999999999996E-3</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1.4</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>0.27971000000000001</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>2.6239999999999999E-2</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>0.25541039999999998</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>2.3191300000000001E-2</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>0.33403559999999999</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="4">
         <v>2.716178E-2</v>
       </c>
+      <c r="I8" s="3">
+        <v>0.249</v>
+      </c>
+      <c r="J8" s="4">
+        <v>2.3570000000000001E-2</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.25352999999999998</v>
+      </c>
+      <c r="L8" s="4">
+        <v>2.401E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1.4</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>0.37605</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>4.8419999999999998E-2</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>0.34823971999999997</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>4.363918E-2</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>0.46189086000000001</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="4">
         <v>5.3202449999999998E-2</v>
       </c>
+      <c r="I9" s="3">
+        <v>0.33448</v>
+      </c>
+      <c r="J9" s="4">
+        <v>4.3339999999999997E-2</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.34055000000000002</v>
+      </c>
+      <c r="L9" s="4">
+        <v>4.4159999999999998E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1.4</v>
       </c>
       <c r="B10">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>0.46911999999999998</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>7.7030000000000001E-2</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>0.43807051000000002</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>7.0298070000000004E-2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>0.58578739999999996</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="4">
         <v>8.7827009999999997E-2</v>
       </c>
+      <c r="I10" s="3">
+        <v>0.41715999999999998</v>
+      </c>
+      <c r="J10" s="4">
+        <v>6.8830000000000002E-2</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.42471999999999999</v>
+      </c>
+      <c r="L10" s="4">
+        <v>7.0129999999999998E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1.6</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>-2.1569999999999999E-2</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>7.1000000000000002E-4</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>-2.5938039999999999E-2</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>1.1515900000000001E-3</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>-5.2408759999999999E-2</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="4">
         <v>3.0579399999999999E-3</v>
       </c>
+      <c r="I11" s="3">
+        <v>-1.567E-2</v>
+      </c>
+      <c r="J11" s="4">
+        <v>5.8E-4</v>
+      </c>
+      <c r="K11" s="3">
+        <v>-1.602E-2</v>
+      </c>
+      <c r="L11" s="4">
+        <v>5.5999999999999995E-4</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1.6</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>2.3600000000000001E-3</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>6.2089909999999998E-2</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <v>1.83113E-3</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>6.8187810000000001E-2</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="4">
         <v>2.03498E-3</v>
       </c>
+      <c r="I12" s="3">
+        <v>6.9889999999999994E-2</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1.98E-3</v>
+      </c>
+      <c r="K12" s="3">
+        <v>6.9779999999999995E-2</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1.9599999999999999E-3</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1.6</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>0.19646</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>1.162E-2</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>0.14956632</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <v>8.6333199999999999E-3</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>0.18818536999999999</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="4">
         <v>9.4093000000000006E-3</v>
       </c>
+      <c r="I13" s="3">
+        <v>0.15490000000000001</v>
+      </c>
+      <c r="J13" s="4">
+        <v>9.3299999999999998E-3</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.15501000000000001</v>
+      </c>
+      <c r="L13" s="4">
+        <v>9.3200000000000002E-3</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1.6</v>
       </c>
       <c r="B14">
         <v>6</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>0.30284</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>2.8309999999999998E-2</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>0.23574700000000001</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="4">
         <v>2.1466579999999999E-2</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>0.30656254999999999</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="4">
         <v>2.5071980000000001E-2</v>
       </c>
+      <c r="I14" s="3">
+        <v>0.23859</v>
+      </c>
+      <c r="J14" s="4">
+        <v>2.2540000000000001E-2</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.23882999999999999</v>
+      </c>
+      <c r="L14" s="4">
+        <v>2.2550000000000001E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1.6</v>
       </c>
       <c r="B15">
         <v>8</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>0.40627000000000002</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>5.2200000000000003E-2</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>0.31990153999999998</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <v>4.016579E-2</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>0.42231517000000002</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="4">
         <v>4.8813059999999998E-2</v>
       </c>
+      <c r="I15" s="3">
+        <v>0.32025999999999999</v>
+      </c>
+      <c r="J15" s="4">
+        <v>4.1439999999999998E-2</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.32069999999999999</v>
+      </c>
+      <c r="L15" s="4">
+        <v>4.1489999999999999E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1.6</v>
       </c>
       <c r="B16">
         <v>10</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>0.50527999999999995</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>8.2869999999999999E-2</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>0.40132103000000002</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="4">
         <v>6.4494109999999993E-2</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>0.53446693000000001</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="4">
         <v>8.032388E-2</v>
       </c>
+      <c r="I16" s="3">
+        <v>0.39928000000000002</v>
+      </c>
+      <c r="J16" s="4">
+        <v>6.5799999999999997E-2</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.39989999999999998</v>
+      </c>
+      <c r="L16" s="4">
+        <v>6.59E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1.8</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>-2.0740000000000001E-2</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <v>-9.1199999999999996E-3</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>-2.2260439999999999E-2</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="4">
         <v>1.03954E-3</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>-4.6034499999999999E-2</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="4">
         <v>2.7604299999999999E-3</v>
       </c>
+      <c r="I17" s="3">
+        <v>-1.3310000000000001E-2</v>
+      </c>
+      <c r="J17" s="4">
+        <v>5.2999999999999998E-4</v>
+      </c>
+      <c r="K17" s="3">
+        <v>-1.328E-2</v>
+      </c>
+      <c r="L17" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1.8</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>6.7320000000000005E-2</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
         <v>4.827E-2</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>6.1658070000000002E-2</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="4">
         <v>1.89857E-3</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>6.3889890000000005E-2</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="4">
         <v>2.2209399999999998E-3</v>
       </c>
+      <c r="I18" s="3">
+        <v>6.454E-2</v>
+      </c>
+      <c r="J18" s="4">
+        <v>1.8799999999999999E-3</v>
+      </c>
+      <c r="K18" s="3">
+        <v>6.3089999999999993E-2</v>
+      </c>
+      <c r="L18" s="4">
+        <v>1.81E-3</v>
+      </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1.8</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>5.654E-2</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <v>0.45623000000000002</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>0.14503309</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="4">
         <v>8.5933199999999998E-3</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>0.17323881999999999</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="4">
         <v>9.3333400000000007E-3</v>
       </c>
+      <c r="I19" s="3">
+        <v>0.14185</v>
+      </c>
+      <c r="J19" s="4">
+        <v>8.6599999999999993E-3</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.13894000000000001</v>
+      </c>
+      <c r="L19" s="4">
+        <v>8.43E-3</v>
+      </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1.8</v>
       </c>
       <c r="B20">
         <v>6</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>-0.22012000000000001</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <v>1.63564</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>0.22715534000000001</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="4">
         <v>2.1034690000000002E-2</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>0.28108165000000002</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="4">
         <v>2.3995010000000001E-2</v>
       </c>
+      <c r="I20" s="3">
+        <v>0.21795999999999999</v>
+      </c>
+      <c r="J20" s="4">
+        <v>2.0750000000000001E-2</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.21360999999999999</v>
+      </c>
+      <c r="L20" s="4">
+        <v>2.0279999999999999E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1.8</v>
       </c>
       <c r="B21">
         <v>8</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>-0.98497999999999997</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>3.9763799999999998</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>0.30732889000000002</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="4">
         <v>3.9063500000000001E-2</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <v>0.38650379000000001</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="4">
         <v>4.6011290000000003E-2</v>
       </c>
+      <c r="I21" s="3">
+        <v>0.29210999999999998</v>
+      </c>
+      <c r="J21" s="4">
+        <v>3.8010000000000002E-2</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.28648000000000001</v>
+      </c>
+      <c r="L21" s="4">
+        <v>3.721E-2</v>
+      </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1.8</v>
       </c>
       <c r="B22">
         <v>10</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>-2.51145</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="4">
         <v>7.8276000000000003</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>0.38487850000000001</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="4">
         <v>6.2452279999999999E-2</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>0.48861636000000003</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="4">
         <v>7.5097689999999995E-2</v>
       </c>
+      <c r="I22" s="3">
+        <v>0.36392000000000002</v>
+      </c>
+      <c r="J22" s="4">
+        <v>6.0240000000000002E-2</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0.35697000000000001</v>
+      </c>
+      <c r="L22" s="4">
+        <v>5.901E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>-2.1239999999999998E-2</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="4">
         <v>-3.6800000000000001E-3</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>-1.9534280000000001E-2</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="4">
         <v>9.3933999999999999E-4</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>-4.1025909999999999E-2</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="4">
         <v>2.5019399999999998E-3</v>
       </c>
+      <c r="I23" s="3">
+        <v>-1.1990000000000001E-2</v>
+      </c>
+      <c r="J23" s="4">
+        <v>4.8999999999999998E-4</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-1.18E-2</v>
+      </c>
+      <c r="L23" s="4">
+        <v>4.6000000000000001E-4</v>
+      </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>7.1139999999999995E-2</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="4">
         <v>4.5560000000000003E-2</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>5.1088630000000003E-2</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="4">
         <v>1.7881500000000001E-3</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <v>5.1224180000000001E-2</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="4">
         <v>2.2642299999999999E-3</v>
       </c>
+      <c r="I24" s="3">
+        <v>5.6820000000000002E-2</v>
+      </c>
+      <c r="J24" s="4">
+        <v>1.73E-3</v>
+      </c>
+      <c r="K24" s="3">
+        <v>5.5620000000000003E-2</v>
+      </c>
+      <c r="L24" s="4">
+        <v>1.6800000000000001E-3</v>
+      </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>8.0939999999999998E-2</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="4">
         <v>0.37733</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>0.12124636</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="4">
         <v>7.5472200000000003E-3</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
         <v>0.14297926</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="4">
         <v>8.4464599999999994E-3</v>
       </c>
+      <c r="I25" s="3">
+        <v>0.12515000000000001</v>
+      </c>
+      <c r="J25" s="4">
+        <v>7.7600000000000004E-3</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.12257</v>
+      </c>
+      <c r="L25" s="4">
+        <v>7.5900000000000004E-3</v>
+      </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
       <c r="B26">
         <v>6</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>-0.11745999999999999</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="4">
         <v>1.2843899999999999</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>0.19034214999999999</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="4">
         <v>1.81405E-2</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
         <v>0.23345857</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="4">
         <v>2.0960670000000001E-2</v>
       </c>
+      <c r="I26" s="3">
+        <v>0.19242000000000001</v>
+      </c>
+      <c r="J26" s="4">
+        <v>1.8489999999999999E-2</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0.18848000000000001</v>
+      </c>
+      <c r="L26" s="4">
+        <v>1.8100000000000002E-2</v>
+      </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
       <c r="B27">
         <v>8</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>-0.68852999999999998</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="4">
         <v>3.0362100000000001</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <v>0.25779054000000001</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="4">
         <v>3.3432990000000003E-2</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="3">
         <v>0.32189496000000001</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="4">
         <v>3.9641750000000003E-2</v>
       </c>
+      <c r="I27" s="3">
+        <v>0.25806000000000001</v>
+      </c>
+      <c r="J27" s="4">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0.25280000000000002</v>
+      </c>
+      <c r="L27" s="4">
+        <v>3.3099999999999997E-2</v>
+      </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
       <c r="B28">
         <v>10</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="5">
         <v>-1.85893</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="6">
         <v>5.8780200000000002</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="5">
         <v>0.32302361000000002</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="6">
         <v>5.3232229999999998E-2</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="5">
         <v>0.40754301999999998</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="6">
         <v>6.4249189999999998E-2</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0.32155</v>
+      </c>
+      <c r="J28" s="6">
+        <v>5.3490000000000003E-2</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0.31501000000000001</v>
+      </c>
+      <c r="L28" s="6">
+        <v>5.2409999999999998E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliobotero/Dropbox/SUAVE/SUAVE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D57F542-575B-1F45-9EA4-CA14A9D0F942}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD35C73E-A7AB-474A-A51F-CB1A9D791FDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{046A4ECD-B913-D647-AEA1-3714B5C9A77F}"/>
   </bookViews>
@@ -409,22 +409,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-3.3139509999999997E-2</c:v>
+                  <c:v>-3.354364E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3907710000000006E-2</c:v>
+                  <c:v>6.3923640000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16036454</c:v>
+                  <c:v>0.16079839000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25541039999999998</c:v>
+                  <c:v>0.25625646000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.34823971999999997</c:v>
+                  <c:v>0.34948880999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.43807051000000002</c:v>
+                  <c:v>0.43971005000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -500,22 +500,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-6.2357009999999997E-2</c:v>
+                  <c:v>-3.3570179999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0793220000000004E-2</c:v>
+                  <c:v>6.5356579999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20330005000000001</c:v>
+                  <c:v>0.16368041999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33403559999999999</c:v>
+                  <c:v>0.26056485000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.46189086000000001</c:v>
+                  <c:v>0.35518872000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.58578739999999996</c:v>
+                  <c:v>0.44675493999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -896,6 +896,1680 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1.6</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$E$11:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-2.6300520000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2100490000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14994745000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23649302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32100369000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40276758000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$F$11:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.13637E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8258300000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6638600000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.155843E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0343650000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4781649999999996E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-311D-814B-A075-12F09F91EE34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$G$11:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-2.6463469999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3347479999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15259502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24051987999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32637686999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40944276000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$H$11:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.13915E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8427000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7928999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1896220000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0984100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5814849999999994E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-311D-814B-A075-12F09F91EE34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$I$11:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.567E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9889999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15490000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23859</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32025999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39928000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$J$11:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.8E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.98E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3299999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2540000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1439999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5799999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-311D-814B-A075-12F09F91EE34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$K$11:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.602E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9779999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15501000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23882999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39989999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$L$11:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.5999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9599999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3200000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2550000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1489999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.59E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-311D-814B-A075-12F09F91EE34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1974359823"/>
+        <c:axId val="1975689743"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1974359823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1975689743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1975689743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1974359823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1.8</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$E$11:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-2.6300520000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2100490000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14994745000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23649302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32100369000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40276758000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$F$11:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.13637E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8258300000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6638600000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.155843E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0343650000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4781649999999996E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3487-4848-86B9-3B2911CB2C52}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$G$17:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-2.2649369999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1998409999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14609681999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22893046</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30979737000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38801648999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$H$17:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0199600000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9063999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6791699999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1248240000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9452880000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3063469999999996E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3487-4848-86B9-3B2911CB2C52}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$I$17:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.3310000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.454E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14185</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21795999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29210999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36392000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$J$17:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.2999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8799999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6599999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8010000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0240000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3487-4848-86B9-3B2911CB2C52}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$K$17:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.328E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3089999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13894000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21360999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28648000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35697000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$L$17:$L$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.81E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.43E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0279999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.721E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.901E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3487-4848-86B9-3B2911CB2C52}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1974359823"/>
+        <c:axId val="1975689743"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1974359823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1975689743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1975689743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1974359823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2.0</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$E$23:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.9839820000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0994499999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12136131</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19066206999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25830962000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32373436999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$F$23:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.1892999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.78813E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5821999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.82247E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3580100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3455210000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A472-3946-9EEE-FB6B615D3D6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$G$23:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.986462E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3477509999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12633430000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19808603999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26812478000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33586079000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$H$23:$H$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.2142000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8277199999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8332799999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8858900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4764179999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5349049999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A472-3946-9EEE-FB6B615D3D6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$I$23:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.1990000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6820000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12515000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19242000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25806000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32155</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$J$23:$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.8999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.73E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7600000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8489999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3799999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3490000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A472-3946-9EEE-FB6B615D3D6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$K$23:$K$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.18E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5620000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12257</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18848000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25280000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31501000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$L$23:$L$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.6000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6800000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5900000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8100000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3099999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2409999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A472-3946-9EEE-FB6B615D3D6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1974359823"/>
+        <c:axId val="1975689743"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1974359823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1975689743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1975689743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1974359823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1126,22 +2800,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-2.5938039999999999E-2</c:v>
+                  <c:v>-2.6300520000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2089909999999998E-2</c:v>
+                  <c:v>6.2100490000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14956632</c:v>
+                  <c:v>0.14994745000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23574700000000001</c:v>
+                  <c:v>0.23649302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.31990153999999998</c:v>
+                  <c:v>0.32100369000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.40132103000000002</c:v>
+                  <c:v>0.40276758000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1217,22 +2891,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-5.2408759999999999E-2</c:v>
+                  <c:v>-2.6463469999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8187810000000001E-2</c:v>
+                  <c:v>6.3347479999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18818536999999999</c:v>
+                  <c:v>0.15259502</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30656254999999999</c:v>
+                  <c:v>0.24051987999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42231517000000002</c:v>
+                  <c:v>0.32637686999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.53446693000000001</c:v>
+                  <c:v>0.40944276000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1823,22 +3497,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-2.5938039999999999E-2</c:v>
+                  <c:v>-2.6300520000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2089909999999998E-2</c:v>
+                  <c:v>6.2100490000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14956632</c:v>
+                  <c:v>0.14994745000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23574700000000001</c:v>
+                  <c:v>0.23649302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.31990153999999998</c:v>
+                  <c:v>0.32100369000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.40132103000000002</c:v>
+                  <c:v>0.40276758000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1914,22 +3588,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-4.6034499999999999E-2</c:v>
+                  <c:v>-2.2649369999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3889890000000005E-2</c:v>
+                  <c:v>6.1998409999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17323881999999999</c:v>
+                  <c:v>0.14609681999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28108165000000002</c:v>
+                  <c:v>0.22893046</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38650379000000001</c:v>
+                  <c:v>0.30979737000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.48861636000000003</c:v>
+                  <c:v>0.38801648999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2340,6 +4014,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>VSP</c:v>
+          </c:tx>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
@@ -2422,15 +4099,6 @@
           <c:tx>
             <c:v>SUAVE Linear</c:v>
           </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
@@ -2448,7 +4116,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'B_T_W only'!$B$11:$B$16</c:f>
+              <c:f>'B_T_W only'!$B$23:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2475,27 +4143,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'B_T_W only'!$E$11:$E$16</c:f>
+              <c:f>'B_T_W only'!$E$23:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-2.5938039999999999E-2</c:v>
+                  <c:v>-1.9839820000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2089909999999998E-2</c:v>
+                  <c:v>5.0994499999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14956632</c:v>
+                  <c:v>0.12136131</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23574700000000001</c:v>
+                  <c:v>0.19066206999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.31990153999999998</c:v>
+                  <c:v>0.25830962000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.40132103000000002</c:v>
+                  <c:v>0.32373436999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2510,6 +4178,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>SUAVE COS</c:v>
+          </c:tx>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
@@ -2559,22 +4230,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-4.1025909999999999E-2</c:v>
+                  <c:v>-1.986462E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1224180000000001E-2</c:v>
+                  <c:v>5.3477509999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14297926</c:v>
+                  <c:v>0.12633430000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23345857</c:v>
+                  <c:v>0.19808603999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32189496000000001</c:v>
+                  <c:v>0.26812478000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.40754301999999998</c:v>
+                  <c:v>0.33586079000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2589,6 +4260,9 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:v>VORLAX Linear</c:v>
+          </c:tx>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
@@ -2668,6 +4342,9 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:v>VORLAX COS</c:v>
+          </c:tx>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
@@ -2903,6 +4580,2992 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1.4</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SUAVE Linear</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$B$5:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$E$5:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-3.354364E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3923640000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16079839000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25625646000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34948880999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43971005000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CA23-0241-A51D-D861B89F5ECF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SUAVE COS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$B$5:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$G$5:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-3.3570179999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5356579999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16368041999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26056485000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35518872000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44675493999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CA23-0241-A51D-D861B89F5ECF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>VORLAX Linear</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$B$5:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$I$5:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.7049999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2529999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16142000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.249</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33448</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41715999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CA23-0241-A51D-D861B89F5ECF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>VORLAX COS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$B$5:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$K$5:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.7309999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3819999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16438</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25352999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34055000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42471999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CA23-0241-A51D-D861B89F5ECF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1974359823"/>
+        <c:axId val="1975689743"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1974359823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1975689743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1975689743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1974359823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1.6</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SUAVE Linear</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$B$11:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$E$11:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-2.6300520000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2100490000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14994745000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23649302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32100369000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40276758000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8A08-2F4A-B0EC-1DBC1F44A94B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SUAVE COS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$B$11:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$G$11:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-2.6463469999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3347479999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15259502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24051987999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32637686999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40944276000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8A08-2F4A-B0EC-1DBC1F44A94B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>VORLAX Linear</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$B$11:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$I$11:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.567E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9889999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15490000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23859</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32025999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39928000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8A08-2F4A-B0EC-1DBC1F44A94B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>VORLAX COS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$B$11:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$K$11:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.602E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9779999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15501000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23882999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39989999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8A08-2F4A-B0EC-1DBC1F44A94B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1974359823"/>
+        <c:axId val="1975689743"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1974359823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1975689743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1975689743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1974359823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1.8</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SUAVE Linear</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$B$11:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$E$11:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-2.6300520000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2100490000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14994745000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23649302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32100369000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40276758000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5A2E-1F4E-8547-2BB828A6D497}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SUAVE COS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$B$17:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$G$17:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-2.2649369999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1998409999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14609681999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22893046</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30979737000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38801648999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5A2E-1F4E-8547-2BB828A6D497}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>VORLAX Linear</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$B$17:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$I$17:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.3310000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.454E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14185</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21795999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29210999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36392000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5A2E-1F4E-8547-2BB828A6D497}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>VORLAX COS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$B$17:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$K$17:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.328E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3089999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13894000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21360999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28648000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35697000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5A2E-1F4E-8547-2BB828A6D497}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1974359823"/>
+        <c:axId val="1975689743"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1974359823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1975689743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1975689743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1974359823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2.0</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SUAVE Linear</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$B$23:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$E$23:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.9839820000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0994499999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12136131</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19066206999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25830962000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32373436999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4C87-C248-B3B4-413C214D7DBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SUAVE COS</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$B$23:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$G$23:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.986462E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3477509999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12633430000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19808603999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26812478000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33586079000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4C87-C248-B3B4-413C214D7DBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>VORLAX Linear</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$B$23:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$I$23:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.1990000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6820000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12515000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19242000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25806000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32155</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4C87-C248-B3B4-413C214D7DBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>VORLAX COS</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$B$23:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$K$23:$K$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.18E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5620000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12257</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18848000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25280000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31501000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4C87-C248-B3B4-413C214D7DBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1974359823"/>
+        <c:axId val="1975689743"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1974359823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1975689743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1975689743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1974359823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1.4</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$E$5:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-3.354364E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3923640000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16079839000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25625646000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34948880999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43971005000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$F$5:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.30222E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8785E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2347999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3271210000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3806369999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0579489999999995E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E534-6143-AEAD-08A11CD30375}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$G$5:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-3.3570179999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5356579999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16368041999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26056485000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35518872000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44675493999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$H$5:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.29751E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.89609E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3761899999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3636279999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4492169999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1679049999999994E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E534-6143-AEAD-08A11CD30375}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$I$5:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.7049999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2529999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16142000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.249</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33448</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41715999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$J$5:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0600000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.75E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3570000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3339999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8830000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E534-6143-AEAD-08A11CD30375}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$K$5:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.7309999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3819999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16438</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25352999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34055000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42471999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_T_W only'!$L$5:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.6999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0799999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9299999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.401E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4159999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0129999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E534-6143-AEAD-08A11CD30375}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1974359823"/>
+        <c:axId val="1975689743"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1974359823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1975689743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1975689743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1974359823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2983,6 +7646,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3500,6 +8323,2070 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4162,6 +11049,310 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>338667</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>783167</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A31DC215-1ACB-8749-8F2D-23AA557A5564}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>343285</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>75622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>787785</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>181841</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8383D36-503F-8745-B94B-24DE039AE25E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>170104</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>52532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>614603</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CBD1A30-D6DE-4F49-9071-7B18C8DB7598}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>308649</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>144895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>753148</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>43296</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76768C28-142A-0A48-97AA-873650EC7EE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>745066</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>359833</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72D35F2B-5230-7649-BF29-8098D1393D76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>749684</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>194155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>364451</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>97174</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC9F706-BC68-244D-8037-66C647B57F6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>576503</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>191269</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>74083</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{022210AB-A0CD-0042-BAAE-59954C288C00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>715048</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>60228</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>329814</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>161829</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B6C396B-CDC2-1349-9F51-918A99403484}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4470,7 +11661,7 @@
   <dimension ref="A3:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+      <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4549,16 +11740,16 @@
         <v>7.2000000000000005E-4</v>
       </c>
       <c r="E5" s="3">
-        <v>-3.3139509999999997E-2</v>
+        <v>-3.354364E-2</v>
       </c>
       <c r="F5" s="4">
-        <v>1.3131799999999999E-3</v>
+        <v>1.30222E-3</v>
       </c>
       <c r="G5" s="3">
-        <v>-6.2357009999999997E-2</v>
+        <v>-3.3570179999999998E-2</v>
       </c>
       <c r="H5" s="4">
-        <v>3.3888299999999998E-3</v>
+        <v>1.29751E-3</v>
       </c>
       <c r="I5" s="3">
         <v>-1.7049999999999999E-2</v>
@@ -4587,16 +11778,16 @@
         <v>2.2100000000000002E-3</v>
       </c>
       <c r="E6" s="3">
-        <v>6.3907710000000006E-2</v>
+        <v>6.3923640000000004E-2</v>
       </c>
       <c r="F6" s="4">
-        <v>1.8882599999999999E-3</v>
+        <v>1.8785E-3</v>
       </c>
       <c r="G6" s="3">
-        <v>7.0793220000000004E-2</v>
+        <v>6.5356579999999997E-2</v>
       </c>
       <c r="H6" s="4">
-        <v>2.0804299999999999E-3</v>
+        <v>1.89609E-3</v>
       </c>
       <c r="I6" s="3">
         <v>7.2529999999999997E-2</v>
@@ -4625,16 +11816,16 @@
         <v>1.077E-2</v>
       </c>
       <c r="E7" s="3">
-        <v>0.16036454</v>
+        <v>0.16079839000000001</v>
       </c>
       <c r="F7" s="4">
-        <v>9.2141399999999991E-3</v>
+        <v>9.2347999999999996E-3</v>
       </c>
       <c r="G7" s="3">
-        <v>0.20330005000000001</v>
+        <v>0.16368041999999999</v>
       </c>
       <c r="H7" s="4">
-        <v>1.0044340000000001E-2</v>
+        <v>9.3761899999999995E-3</v>
       </c>
       <c r="I7" s="3">
         <v>0.16142000000000001</v>
@@ -4663,16 +11854,16 @@
         <v>2.6239999999999999E-2</v>
       </c>
       <c r="E8" s="3">
-        <v>0.25541039999999998</v>
+        <v>0.25625646000000002</v>
       </c>
       <c r="F8" s="4">
-        <v>2.3191300000000001E-2</v>
+        <v>2.3271210000000001E-2</v>
       </c>
       <c r="G8" s="3">
-        <v>0.33403559999999999</v>
+        <v>0.26056485000000001</v>
       </c>
       <c r="H8" s="4">
-        <v>2.716178E-2</v>
+        <v>2.3636279999999999E-2</v>
       </c>
       <c r="I8" s="3">
         <v>0.249</v>
@@ -4701,16 +11892,16 @@
         <v>4.8419999999999998E-2</v>
       </c>
       <c r="E9" s="3">
-        <v>0.34823971999999997</v>
+        <v>0.34948880999999998</v>
       </c>
       <c r="F9" s="4">
-        <v>4.363918E-2</v>
+        <v>4.3806369999999997E-2</v>
       </c>
       <c r="G9" s="3">
-        <v>0.46189086000000001</v>
+        <v>0.35518872000000001</v>
       </c>
       <c r="H9" s="4">
-        <v>5.3202449999999998E-2</v>
+        <v>4.4492169999999998E-2</v>
       </c>
       <c r="I9" s="3">
         <v>0.33448</v>
@@ -4739,16 +11930,16 @@
         <v>7.7030000000000001E-2</v>
       </c>
       <c r="E10" s="3">
-        <v>0.43807051000000002</v>
+        <v>0.43971005000000002</v>
       </c>
       <c r="F10" s="4">
-        <v>7.0298070000000004E-2</v>
+        <v>7.0579489999999995E-2</v>
       </c>
       <c r="G10" s="3">
-        <v>0.58578739999999996</v>
+        <v>0.44675493999999999</v>
       </c>
       <c r="H10" s="4">
-        <v>8.7827009999999997E-2</v>
+        <v>7.1679049999999994E-2</v>
       </c>
       <c r="I10" s="3">
         <v>0.41715999999999998</v>
@@ -4777,16 +11968,16 @@
         <v>7.1000000000000002E-4</v>
       </c>
       <c r="E11" s="3">
-        <v>-2.5938039999999999E-2</v>
+        <v>-2.6300520000000001E-2</v>
       </c>
       <c r="F11" s="4">
-        <v>1.1515900000000001E-3</v>
+        <v>1.13637E-3</v>
       </c>
       <c r="G11" s="3">
-        <v>-5.2408759999999999E-2</v>
+        <v>-2.6463469999999999E-2</v>
       </c>
       <c r="H11" s="4">
-        <v>3.0579399999999999E-3</v>
+        <v>1.13915E-3</v>
       </c>
       <c r="I11" s="3">
         <v>-1.567E-2</v>
@@ -4815,16 +12006,16 @@
         <v>2.3600000000000001E-3</v>
       </c>
       <c r="E12" s="3">
-        <v>6.2089909999999998E-2</v>
+        <v>6.2100490000000001E-2</v>
       </c>
       <c r="F12" s="4">
-        <v>1.83113E-3</v>
+        <v>1.8258300000000001E-3</v>
       </c>
       <c r="G12" s="3">
-        <v>6.8187810000000001E-2</v>
+        <v>6.3347479999999998E-2</v>
       </c>
       <c r="H12" s="4">
-        <v>2.03498E-3</v>
+        <v>1.8427000000000001E-3</v>
       </c>
       <c r="I12" s="3">
         <v>6.9889999999999994E-2</v>
@@ -4853,16 +12044,16 @@
         <v>1.162E-2</v>
       </c>
       <c r="E13" s="3">
-        <v>0.14956632</v>
+        <v>0.14994745000000001</v>
       </c>
       <c r="F13" s="4">
-        <v>8.6333199999999999E-3</v>
+        <v>8.6638600000000007E-3</v>
       </c>
       <c r="G13" s="3">
-        <v>0.18818536999999999</v>
+        <v>0.15259502</v>
       </c>
       <c r="H13" s="4">
-        <v>9.4093000000000006E-3</v>
+        <v>8.7928999999999993E-3</v>
       </c>
       <c r="I13" s="3">
         <v>0.15490000000000001</v>
@@ -4891,16 +12082,16 @@
         <v>2.8309999999999998E-2</v>
       </c>
       <c r="E14" s="3">
-        <v>0.23574700000000001</v>
+        <v>0.23649302</v>
       </c>
       <c r="F14" s="4">
-        <v>2.1466579999999999E-2</v>
+        <v>2.155843E-2</v>
       </c>
       <c r="G14" s="3">
-        <v>0.30656254999999999</v>
+        <v>0.24051987999999999</v>
       </c>
       <c r="H14" s="4">
-        <v>2.5071980000000001E-2</v>
+        <v>2.1896220000000001E-2</v>
       </c>
       <c r="I14" s="3">
         <v>0.23859</v>
@@ -4929,16 +12120,16 @@
         <v>5.2200000000000003E-2</v>
       </c>
       <c r="E15" s="3">
-        <v>0.31990153999999998</v>
+        <v>0.32100369000000001</v>
       </c>
       <c r="F15" s="4">
-        <v>4.016579E-2</v>
+        <v>4.0343650000000002E-2</v>
       </c>
       <c r="G15" s="3">
-        <v>0.42231517000000002</v>
+        <v>0.32637686999999999</v>
       </c>
       <c r="H15" s="4">
-        <v>4.8813059999999998E-2</v>
+        <v>4.0984100000000002E-2</v>
       </c>
       <c r="I15" s="3">
         <v>0.32025999999999999</v>
@@ -4967,16 +12158,16 @@
         <v>8.2869999999999999E-2</v>
       </c>
       <c r="E16" s="3">
-        <v>0.40132103000000002</v>
+        <v>0.40276758000000001</v>
       </c>
       <c r="F16" s="4">
-        <v>6.4494109999999993E-2</v>
+        <v>6.4781649999999996E-2</v>
       </c>
       <c r="G16" s="3">
-        <v>0.53446693000000001</v>
+        <v>0.40944276000000002</v>
       </c>
       <c r="H16" s="4">
-        <v>8.032388E-2</v>
+        <v>6.5814849999999994E-2</v>
       </c>
       <c r="I16" s="3">
         <v>0.39928000000000002</v>
@@ -5005,16 +12196,16 @@
         <v>-9.1199999999999996E-3</v>
       </c>
       <c r="E17" s="3">
-        <v>-2.2260439999999999E-2</v>
+        <v>-2.2596249999999998E-2</v>
       </c>
       <c r="F17" s="4">
-        <v>1.03954E-3</v>
+        <v>1.02078E-3</v>
       </c>
       <c r="G17" s="3">
-        <v>-4.6034499999999999E-2</v>
+        <v>-2.2649369999999999E-2</v>
       </c>
       <c r="H17" s="4">
-        <v>2.7604299999999999E-3</v>
+        <v>1.0199600000000001E-3</v>
       </c>
       <c r="I17" s="3">
         <v>-1.3310000000000001E-2</v>
@@ -5043,16 +12234,16 @@
         <v>4.827E-2</v>
       </c>
       <c r="E18" s="3">
-        <v>6.1658070000000002E-2</v>
+        <v>6.1650429999999999E-2</v>
       </c>
       <c r="F18" s="4">
-        <v>1.89857E-3</v>
+        <v>1.90277E-3</v>
       </c>
       <c r="G18" s="3">
-        <v>6.3889890000000005E-2</v>
+        <v>6.1998409999999997E-2</v>
       </c>
       <c r="H18" s="4">
-        <v>2.2209399999999998E-3</v>
+        <v>1.9063999999999999E-3</v>
       </c>
       <c r="I18" s="3">
         <v>6.454E-2</v>
@@ -5081,16 +12272,16 @@
         <v>0.45623000000000002</v>
       </c>
       <c r="E19" s="3">
-        <v>0.14503309</v>
+        <v>0.14535042000000001</v>
       </c>
       <c r="F19" s="4">
-        <v>8.5933199999999998E-3</v>
+        <v>8.6432000000000002E-3</v>
       </c>
       <c r="G19" s="3">
-        <v>0.17323881999999999</v>
+        <v>0.14609681999999999</v>
       </c>
       <c r="H19" s="4">
-        <v>9.3333400000000007E-3</v>
+        <v>8.6791699999999999E-3</v>
       </c>
       <c r="I19" s="3">
         <v>0.14185</v>
@@ -5119,16 +12310,16 @@
         <v>1.63564</v>
       </c>
       <c r="E20" s="3">
-        <v>0.22715534000000001</v>
+        <v>0.22779170000000001</v>
       </c>
       <c r="F20" s="4">
-        <v>2.1034690000000002E-2</v>
+        <v>2.1152460000000001E-2</v>
       </c>
       <c r="G20" s="3">
-        <v>0.28108165000000002</v>
+        <v>0.22893046</v>
       </c>
       <c r="H20" s="4">
-        <v>2.3995010000000001E-2</v>
+        <v>2.1248240000000002E-2</v>
       </c>
       <c r="I20" s="3">
         <v>0.21795999999999999</v>
@@ -5157,16 +12348,16 @@
         <v>3.9763799999999998</v>
       </c>
       <c r="E21" s="3">
-        <v>0.30732889000000002</v>
+        <v>0.30827567</v>
       </c>
       <c r="F21" s="4">
-        <v>3.9063500000000001E-2</v>
+        <v>3.9270579999999999E-2</v>
       </c>
       <c r="G21" s="3">
-        <v>0.38650379000000001</v>
+        <v>0.30979737000000002</v>
       </c>
       <c r="H21" s="4">
-        <v>4.6011290000000003E-2</v>
+        <v>3.9452880000000003E-2</v>
       </c>
       <c r="I21" s="3">
         <v>0.29210999999999998</v>
@@ -5195,16 +12386,16 @@
         <v>7.8276000000000003</v>
       </c>
       <c r="E22" s="3">
-        <v>0.38487850000000001</v>
+        <v>0.38612447999999999</v>
       </c>
       <c r="F22" s="4">
-        <v>6.2452279999999999E-2</v>
+        <v>6.2769030000000003E-2</v>
       </c>
       <c r="G22" s="3">
-        <v>0.48861636000000003</v>
+        <v>0.38801648999999999</v>
       </c>
       <c r="H22" s="4">
-        <v>7.5097689999999995E-2</v>
+        <v>6.3063469999999996E-2</v>
       </c>
       <c r="I22" s="3">
         <v>0.36392000000000002</v>
@@ -5233,16 +12424,16 @@
         <v>-3.6800000000000001E-3</v>
       </c>
       <c r="E23" s="3">
-        <v>-1.9534280000000001E-2</v>
+        <v>-1.9839820000000001E-2</v>
       </c>
       <c r="F23" s="4">
-        <v>9.3933999999999999E-4</v>
+        <v>9.1892999999999999E-4</v>
       </c>
       <c r="G23" s="3">
-        <v>-4.1025909999999999E-2</v>
+        <v>-1.986462E-2</v>
       </c>
       <c r="H23" s="4">
-        <v>2.5019399999999998E-3</v>
+        <v>9.2142000000000005E-4</v>
       </c>
       <c r="I23" s="3">
         <v>-1.1990000000000001E-2</v>
@@ -5271,16 +12462,16 @@
         <v>4.5560000000000003E-2</v>
       </c>
       <c r="E24" s="3">
-        <v>5.1088630000000003E-2</v>
+        <v>5.0994499999999998E-2</v>
       </c>
       <c r="F24" s="4">
-        <v>1.7881500000000001E-3</v>
+        <v>1.78813E-3</v>
       </c>
       <c r="G24" s="3">
-        <v>5.1224180000000001E-2</v>
+        <v>5.3477509999999999E-2</v>
       </c>
       <c r="H24" s="4">
-        <v>2.2642299999999999E-3</v>
+        <v>1.8277199999999999E-3</v>
       </c>
       <c r="I24" s="3">
         <v>5.6820000000000002E-2</v>
@@ -5309,16 +12500,16 @@
         <v>0.37733</v>
       </c>
       <c r="E25" s="3">
-        <v>0.12124636</v>
+        <v>0.12136131</v>
       </c>
       <c r="F25" s="4">
-        <v>7.5472200000000003E-3</v>
+        <v>7.5821999999999999E-3</v>
       </c>
       <c r="G25" s="3">
-        <v>0.14297926</v>
+        <v>0.12633430000000001</v>
       </c>
       <c r="H25" s="4">
-        <v>8.4464599999999994E-3</v>
+        <v>7.8332799999999998E-3</v>
       </c>
       <c r="I25" s="3">
         <v>0.12515000000000001</v>
@@ -5347,16 +12538,16 @@
         <v>1.2843899999999999</v>
       </c>
       <c r="E26" s="3">
-        <v>0.19034214999999999</v>
+        <v>0.19066206999999999</v>
       </c>
       <c r="F26" s="4">
-        <v>1.81405E-2</v>
+        <v>1.82247E-2</v>
       </c>
       <c r="G26" s="3">
-        <v>0.23345857</v>
+        <v>0.19808603999999999</v>
       </c>
       <c r="H26" s="4">
-        <v>2.0960670000000001E-2</v>
+        <v>1.8858900000000001E-2</v>
       </c>
       <c r="I26" s="3">
         <v>0.19242000000000001</v>
@@ -5385,16 +12576,16 @@
         <v>3.0362100000000001</v>
       </c>
       <c r="E27" s="3">
-        <v>0.25779054000000001</v>
+        <v>0.25830962000000002</v>
       </c>
       <c r="F27" s="4">
-        <v>3.3432990000000003E-2</v>
+        <v>3.3580100000000002E-2</v>
       </c>
       <c r="G27" s="3">
-        <v>0.32189496000000001</v>
+        <v>0.26812478000000001</v>
       </c>
       <c r="H27" s="4">
-        <v>3.9641750000000003E-2</v>
+        <v>3.4764179999999999E-2</v>
       </c>
       <c r="I27" s="3">
         <v>0.25806000000000001</v>
@@ -5423,16 +12614,16 @@
         <v>5.8780200000000002</v>
       </c>
       <c r="E28" s="5">
-        <v>0.32302361000000002</v>
+        <v>0.32373436999999999</v>
       </c>
       <c r="F28" s="6">
-        <v>5.3232229999999998E-2</v>
+        <v>5.3455210000000003E-2</v>
       </c>
       <c r="G28" s="5">
-        <v>0.40754301999999998</v>
+        <v>0.33586079000000002</v>
       </c>
       <c r="H28" s="6">
-        <v>6.4249189999999998E-2</v>
+        <v>5.5349049999999997E-2</v>
       </c>
       <c r="I28" s="5">
         <v>0.32155</v>

--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliobotero/Dropbox/SUAVE/SUAVE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD35C73E-A7AB-474A-A51F-CB1A9D791FDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAD5F12-0FC7-7C47-83F7-B8DFEFB00CC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{046A4ECD-B913-D647-AEA1-3714B5C9A77F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{046A4ECD-B913-D647-AEA1-3714B5C9A77F}"/>
   </bookViews>
   <sheets>
     <sheet name="B_T_W only" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="B_nT_nd W only" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>VSP</t>
   </si>
@@ -54,11 +54,56 @@
   <si>
     <t>VORLAX (6 SW per panel x 10) Cosine SW</t>
   </si>
+  <si>
+    <t>MACH</t>
+  </si>
+  <si>
+    <t>AOA</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>CMy</t>
+  </si>
+  <si>
+    <t>SU2</t>
+  </si>
+  <si>
+    <t>Biconvex Airfoil, no twist, no dihedral, wing only</t>
+  </si>
+  <si>
+    <t>SUAVE (25x10 Cos) SPC=-1</t>
+  </si>
+  <si>
+    <t>SUAVE SPC=-1</t>
+  </si>
+  <si>
+    <t>SUAVE SPC=1</t>
+  </si>
+  <si>
+    <t>VORLAX SPC=1</t>
+  </si>
+  <si>
+    <t>VORLAX SPC=-1</t>
+  </si>
+  <si>
+    <t>SUAVE (25x10 Lin) SPC=1</t>
+  </si>
+  <si>
+    <t>Vorlax (Linear mesh  27S 10C ) SPC=1</t>
+  </si>
+  <si>
+    <t>Vorlax (Linear mesh 27S 10C ) SPC=-1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -76,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -146,22 +191,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2552,6 +2627,3010 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CL vs. AoA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> M=0.8</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SU2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-8.995331376E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.432980734E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0455600479999898E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1820402022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.287744478299999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E30C-7146-BC2C-1F3A8BA75265}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SUAVE SPC=-1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$H$4:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-9.3962379999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3962379999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19238967000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29430118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E30C-7146-BC2C-1F3A8BA75265}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SUAVE SPC=1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$K$4:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-9.1398489999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1398489999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18233157999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27233070999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-E30C-7146-BC2C-1F3A8BA75265}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'B_nT_nd W only'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VORLAX SPC=1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$N$4:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-8.3820000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3820000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16722000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24981</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-E30C-7146-BC2C-1F3A8BA75265}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'B_nT_nd W only'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VORLAX SPC=-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$Q$4:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-8.6870000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6870000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17915</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27589000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-E30C-7146-BC2C-1F3A8BA75265}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1755150431"/>
+        <c:axId val="1755152079"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1755150431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1755152079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1755152079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1755150431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CL vs. AoA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> M=1.6</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SU2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$D$9:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$E$9:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-7.8373750869999897E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4096286320000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8448547470000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15695832039999899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2332899776</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0DAC-1F44-A6C3-E2A7D3717EEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SUAVE SPC=-1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$D$9:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$H$9:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-9.1128520000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1128520000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18229492999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27270199000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0DAC-1F44-A6C3-E2A7D3717EEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SUAVE SPC=1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$K$9:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-8.9748110000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9748110000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17876642000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26633195999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0DAC-1F44-A6C3-E2A7D3717EEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'B_nT_nd W only'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VORLAX SPC=1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$D$9:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$N$9:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-8.4959999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4959999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16930999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25245000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-0DAC-1F44-A6C3-E2A7D3717EEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'B_nT_nd W only'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VORLAX SPC=-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$D$9:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$Q$9:$Q$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-8.6300000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6300000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17458000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26401000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-0DAC-1F44-A6C3-E2A7D3717EEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1755150431"/>
+        <c:axId val="1755152079"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1755150431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1755152079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1755152079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1755150431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CD vs. AoA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> M=0.8</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'B_nT_nd W only'!$E$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SU2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$F$4:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.653771014E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.9111578319999901E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6615819139999899E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1632074960000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.882433174E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E93-2B4B-8B6F-0C25372FE45A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'B_nT_nd W only'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SUAVE SPC=-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$I$4:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.2812399999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2812399999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.34532E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0932299999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7E93-2B4B-8B6F-0C25372FE45A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'B_nT_nd W only'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SUAVE SPC=1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$L$4:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.68622E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.68622E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7462499999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5183510000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7E93-2B4B-8B6F-0C25372FE45A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'B_nT_nd W only'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VORLAX SPC=1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$O$4:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.48E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.48E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9300000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.336E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7E93-2B4B-8B6F-0C25372FE45A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'B_nT_nd W only'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VORLAX SPC=-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$R$4:$R$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.0300000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0300000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2529999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-7E93-2B4B-8B6F-0C25372FE45A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1755150431"/>
+        <c:axId val="1755152079"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1755150431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1755152079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1755152079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1755150431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CL vs. AoA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> M=1.6</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'B_nT_nd W only'!$E$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SU2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$D$9:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$F$9:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.3604942029999896E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7948900379999898E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3606124450000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3303094160000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6532369959999899E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A4B5-3C4C-80CF-DB6EAAB41068}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'B_nT_nd W only'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SUAVE SPC=-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$D$9:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$I$9:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.18228E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.18228E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.27473E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8662130000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A4B5-3C4C-80CF-DB6EAAB41068}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'B_nT_nd W only'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SUAVE SPC=1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$D$9:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$L$9:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.96708E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.96708E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1834610000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6501830000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A4B5-3C4C-80CF-DB6EAAB41068}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'B_nT_nd W only'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VORLAX SPC=1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$D$9:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$O$9:$O$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.4099999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4099999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1569999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A4B5-3C4C-80CF-DB6EAAB41068}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'B_nT_nd W only'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VORLAX SPC=-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$D$9:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'B_nT_nd W only'!$R$9:$R$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.0100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.221E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.775E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A4B5-3C4C-80CF-DB6EAAB41068}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1755150431"/>
+        <c:axId val="1755152079"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1755150431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1755152079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1755152079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1755150431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -7606,6 +10685,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7806,6 +10925,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -8322,7 +11561,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8838,7 +12077,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9354,7 +12593,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9870,7 +13109,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10386,7 +13625,2071 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11361,6 +16664,161 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5901B367-E554-454C-A0D5-700C162536D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22D0896C-C569-284F-B71F-918B1961078C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6E5E214-654F-D046-A2E6-EB949C0929BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C574A335-9794-0643-86D2-D1B07DC13687}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -11660,33 +17118,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C028EC-C8DA-F948-B065-6EF1D4A0FEB8}">
   <dimension ref="A3:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="1" t="s">
+      <c r="J3" s="8"/>
+      <c r="K3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="2"/>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -11695,34 +17153,34 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -11733,34 +17191,34 @@
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>-2.1729999999999999E-2</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>7.2000000000000005E-4</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>-3.354364E-2</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>1.30222E-3</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="1">
         <v>-3.3570179999999998E-2</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <v>1.29751E-3</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="1">
         <v>-1.7049999999999999E-2</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="2">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="1">
         <v>-1.7309999999999999E-2</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="2">
         <v>5.6999999999999998E-4</v>
       </c>
     </row>
@@ -11771,34 +17229,34 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>7.9979999999999996E-2</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>2.2100000000000002E-3</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>6.3923640000000004E-2</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>1.8785E-3</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
         <v>6.5356579999999997E-2</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="2">
         <v>1.89609E-3</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="1">
         <v>7.2529999999999997E-2</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="2">
         <v>2.0600000000000002E-3</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="1">
         <v>7.3819999999999997E-2</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="2">
         <v>2.0799999999999998E-3</v>
       </c>
     </row>
@@ -11809,34 +17267,34 @@
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>0.18079999999999999</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>1.077E-2</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>0.16079839000000001</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <v>9.2347999999999996E-3</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="1">
         <v>0.16368041999999999</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="2">
         <v>9.3761899999999995E-3</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="1">
         <v>0.16142000000000001</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="2">
         <v>9.75E-3</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="1">
         <v>0.16438</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="2">
         <v>9.9299999999999996E-3</v>
       </c>
     </row>
@@ -11847,34 +17305,34 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>0.27971000000000001</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>2.6239999999999999E-2</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <v>0.25625646000000002</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <v>2.3271210000000001E-2</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="1">
         <v>0.26056485000000001</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="2">
         <v>2.3636279999999999E-2</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="1">
         <v>0.249</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="2">
         <v>2.3570000000000001E-2</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="1">
         <v>0.25352999999999998</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="2">
         <v>2.401E-2</v>
       </c>
     </row>
@@ -11885,34 +17343,34 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>0.37605</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>4.8419999999999998E-2</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
         <v>0.34948880999999998</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <v>4.3806369999999997E-2</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="1">
         <v>0.35518872000000001</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="2">
         <v>4.4492169999999998E-2</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="1">
         <v>0.33448</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="2">
         <v>4.3339999999999997E-2</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="1">
         <v>0.34055000000000002</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="2">
         <v>4.4159999999999998E-2</v>
       </c>
     </row>
@@ -11923,34 +17381,34 @@
       <c r="B10">
         <v>10</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>0.46911999999999998</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>7.7030000000000001E-2</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="1">
         <v>0.43971005000000002</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <v>7.0579489999999995E-2</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="1">
         <v>0.44675493999999999</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="2">
         <v>7.1679049999999994E-2</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="1">
         <v>0.41715999999999998</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="2">
         <v>6.8830000000000002E-2</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="1">
         <v>0.42471999999999999</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="2">
         <v>7.0129999999999998E-2</v>
       </c>
     </row>
@@ -11961,34 +17419,34 @@
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>-2.1569999999999999E-2</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>7.1000000000000002E-4</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>-2.6300520000000001E-2</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <v>1.13637E-3</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="1">
         <v>-2.6463469999999999E-2</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="2">
         <v>1.13915E-3</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="1">
         <v>-1.567E-2</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="2">
         <v>5.8E-4</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="1">
         <v>-1.602E-2</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="2">
         <v>5.5999999999999995E-4</v>
       </c>
     </row>
@@ -11999,34 +17457,34 @@
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>2.3600000000000001E-3</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="1">
         <v>6.2100490000000001E-2</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="2">
         <v>1.8258300000000001E-3</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="1">
         <v>6.3347479999999998E-2</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="2">
         <v>1.8427000000000001E-3</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="1">
         <v>6.9889999999999994E-2</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="2">
         <v>1.98E-3</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="1">
         <v>6.9779999999999995E-2</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="2">
         <v>1.9599999999999999E-3</v>
       </c>
     </row>
@@ -12037,34 +17495,34 @@
       <c r="B13">
         <v>4</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>0.19646</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>1.162E-2</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="1">
         <v>0.14994745000000001</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <v>8.6638600000000007E-3</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="1">
         <v>0.15259502</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="2">
         <v>8.7928999999999993E-3</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="1">
         <v>0.15490000000000001</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="2">
         <v>9.3299999999999998E-3</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="1">
         <v>0.15501000000000001</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="2">
         <v>9.3200000000000002E-3</v>
       </c>
     </row>
@@ -12075,34 +17533,34 @@
       <c r="B14">
         <v>6</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>0.30284</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>2.8309999999999998E-2</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="1">
         <v>0.23649302</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="2">
         <v>2.155843E-2</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="1">
         <v>0.24051987999999999</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="2">
         <v>2.1896220000000001E-2</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="1">
         <v>0.23859</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="2">
         <v>2.2540000000000001E-2</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="1">
         <v>0.23882999999999999</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="2">
         <v>2.2550000000000001E-2</v>
       </c>
     </row>
@@ -12113,34 +17571,34 @@
       <c r="B15">
         <v>8</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>0.40627000000000002</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>5.2200000000000003E-2</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="1">
         <v>0.32100369000000001</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="2">
         <v>4.0343650000000002E-2</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="1">
         <v>0.32637686999999999</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="2">
         <v>4.0984100000000002E-2</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="1">
         <v>0.32025999999999999</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="2">
         <v>4.1439999999999998E-2</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="1">
         <v>0.32069999999999999</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="2">
         <v>4.1489999999999999E-2</v>
       </c>
     </row>
@@ -12151,34 +17609,34 @@
       <c r="B16">
         <v>10</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="1">
         <v>0.50527999999999995</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <v>8.2869999999999999E-2</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="1">
         <v>0.40276758000000001</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="2">
         <v>6.4781649999999996E-2</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="1">
         <v>0.40944276000000002</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="2">
         <v>6.5814849999999994E-2</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="1">
         <v>0.39928000000000002</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="2">
         <v>6.5799999999999997E-2</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="1">
         <v>0.39989999999999998</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="2">
         <v>6.59E-2</v>
       </c>
     </row>
@@ -12189,34 +17647,34 @@
       <c r="B17">
         <v>0</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="1">
         <v>-2.0740000000000001E-2</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>-9.1199999999999996E-3</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="1">
         <v>-2.2596249999999998E-2</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="2">
         <v>1.02078E-3</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="1">
         <v>-2.2649369999999999E-2</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="2">
         <v>1.0199600000000001E-3</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="1">
         <v>-1.3310000000000001E-2</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="2">
         <v>5.2999999999999998E-4</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="1">
         <v>-1.328E-2</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
@@ -12227,34 +17685,34 @@
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="1">
         <v>6.7320000000000005E-2</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="2">
         <v>4.827E-2</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="1">
         <v>6.1650429999999999E-2</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="2">
         <v>1.90277E-3</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="1">
         <v>6.1998409999999997E-2</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="2">
         <v>1.9063999999999999E-3</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="1">
         <v>6.454E-2</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="2">
         <v>1.8799999999999999E-3</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="1">
         <v>6.3089999999999993E-2</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="2">
         <v>1.81E-3</v>
       </c>
     </row>
@@ -12265,34 +17723,34 @@
       <c r="B19">
         <v>4</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="1">
         <v>5.654E-2</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="2">
         <v>0.45623000000000002</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="1">
         <v>0.14535042000000001</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="2">
         <v>8.6432000000000002E-3</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="1">
         <v>0.14609681999999999</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="2">
         <v>8.6791699999999999E-3</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="1">
         <v>0.14185</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="2">
         <v>8.6599999999999993E-3</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="1">
         <v>0.13894000000000001</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="2">
         <v>8.43E-3</v>
       </c>
     </row>
@@ -12303,34 +17761,34 @@
       <c r="B20">
         <v>6</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="1">
         <v>-0.22012000000000001</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="2">
         <v>1.63564</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="1">
         <v>0.22779170000000001</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="2">
         <v>2.1152460000000001E-2</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="1">
         <v>0.22893046</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="2">
         <v>2.1248240000000002E-2</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="1">
         <v>0.21795999999999999</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="2">
         <v>2.0750000000000001E-2</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="1">
         <v>0.21360999999999999</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="2">
         <v>2.0279999999999999E-2</v>
       </c>
     </row>
@@ -12341,34 +17799,34 @@
       <c r="B21">
         <v>8</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="1">
         <v>-0.98497999999999997</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="2">
         <v>3.9763799999999998</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="1">
         <v>0.30827567</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="2">
         <v>3.9270579999999999E-2</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="1">
         <v>0.30979737000000002</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="2">
         <v>3.9452880000000003E-2</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="1">
         <v>0.29210999999999998</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="2">
         <v>3.8010000000000002E-2</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="1">
         <v>0.28648000000000001</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="2">
         <v>3.721E-2</v>
       </c>
     </row>
@@ -12379,34 +17837,34 @@
       <c r="B22">
         <v>10</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="1">
         <v>-2.51145</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="2">
         <v>7.8276000000000003</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="1">
         <v>0.38612447999999999</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="2">
         <v>6.2769030000000003E-2</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="1">
         <v>0.38801648999999999</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="2">
         <v>6.3063469999999996E-2</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="1">
         <v>0.36392000000000002</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="2">
         <v>6.0240000000000002E-2</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="1">
         <v>0.35697000000000001</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="2">
         <v>5.901E-2</v>
       </c>
     </row>
@@ -12417,34 +17875,34 @@
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="1">
         <v>-2.1239999999999998E-2</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="2">
         <v>-3.6800000000000001E-3</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="1">
         <v>-1.9839820000000001E-2</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="2">
         <v>9.1892999999999999E-4</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="1">
         <v>-1.986462E-2</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="2">
         <v>9.2142000000000005E-4</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="1">
         <v>-1.1990000000000001E-2</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="2">
         <v>4.8999999999999998E-4</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="1">
         <v>-1.18E-2</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="2">
         <v>4.6000000000000001E-4</v>
       </c>
     </row>
@@ -12455,34 +17913,34 @@
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="1">
         <v>7.1139999999999995E-2</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="2">
         <v>4.5560000000000003E-2</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="1">
         <v>5.0994499999999998E-2</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="2">
         <v>1.78813E-3</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="1">
         <v>5.3477509999999999E-2</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="2">
         <v>1.8277199999999999E-3</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="1">
         <v>5.6820000000000002E-2</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="2">
         <v>1.73E-3</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="1">
         <v>5.5620000000000003E-2</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="2">
         <v>1.6800000000000001E-3</v>
       </c>
     </row>
@@ -12493,34 +17951,34 @@
       <c r="B25">
         <v>4</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="1">
         <v>8.0939999999999998E-2</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="2">
         <v>0.37733</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="1">
         <v>0.12136131</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="2">
         <v>7.5821999999999999E-3</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="1">
         <v>0.12633430000000001</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="2">
         <v>7.8332799999999998E-3</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="1">
         <v>0.12515000000000001</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="2">
         <v>7.7600000000000004E-3</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="1">
         <v>0.12257</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="2">
         <v>7.5900000000000004E-3</v>
       </c>
     </row>
@@ -12531,34 +17989,34 @@
       <c r="B26">
         <v>6</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="1">
         <v>-0.11745999999999999</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="2">
         <v>1.2843899999999999</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="1">
         <v>0.19066206999999999</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="2">
         <v>1.82247E-2</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="1">
         <v>0.19808603999999999</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="2">
         <v>1.8858900000000001E-2</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="1">
         <v>0.19242000000000001</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="2">
         <v>1.8489999999999999E-2</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="1">
         <v>0.18848000000000001</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="2">
         <v>1.8100000000000002E-2</v>
       </c>
     </row>
@@ -12569,34 +18027,34 @@
       <c r="B27">
         <v>8</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="1">
         <v>-0.68852999999999998</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="2">
         <v>3.0362100000000001</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="1">
         <v>0.25830962000000002</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="2">
         <v>3.3580100000000002E-2</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="1">
         <v>0.26812478000000001</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="2">
         <v>3.4764179999999999E-2</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="1">
         <v>0.25806000000000001</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="2">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="1">
         <v>0.25280000000000002</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="2">
         <v>3.3099999999999997E-2</v>
       </c>
     </row>
@@ -12607,34 +18065,34 @@
       <c r="B28">
         <v>10</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="3">
         <v>-1.85893</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="4">
         <v>5.8780200000000002</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="3">
         <v>0.32373436999999999</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="4">
         <v>5.3455210000000003E-2</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="3">
         <v>0.33586079000000002</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="4">
         <v>5.5349049999999997E-2</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="3">
         <v>0.32155</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="4">
         <v>5.3490000000000003E-2</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="3">
         <v>0.31501000000000001</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="4">
         <v>5.2409999999999998E-2</v>
       </c>
     </row>
@@ -12653,365 +18111,655 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB84D9B7-4798-7E4F-A973-934ACEE97A60}">
-  <dimension ref="C2:F26"/>
+  <dimension ref="B1:U13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="1" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="E2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="9"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="9"/>
+      <c r="S2" s="8"/>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C4" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="D4" s="6">
+        <v>-2</v>
+      </c>
+      <c r="E4" s="10">
+        <v>-8.995331376E-2</v>
+      </c>
+      <c r="F4" s="11">
+        <v>2.653771014E-3</v>
+      </c>
+      <c r="G4" s="12">
+        <v>3.2851483129999901E-2</v>
+      </c>
+      <c r="H4" s="10">
+        <v>-9.3962379999999998E-2</v>
+      </c>
+      <c r="I4" s="11">
+        <v>3.2812399999999999E-3</v>
+      </c>
+      <c r="J4" s="12">
+        <v>1.647935E-2</v>
+      </c>
+      <c r="K4" s="10">
+        <v>-9.1398489999999999E-2</v>
+      </c>
+      <c r="L4" s="11">
+        <v>1.68622E-3</v>
+      </c>
+      <c r="M4" s="12">
+        <v>1.6253739999999999E-2</v>
+      </c>
+      <c r="N4" s="10">
+        <v>-8.3820000000000006E-2</v>
+      </c>
+      <c r="O4" s="11">
+        <v>1.48E-3</v>
+      </c>
+      <c r="P4" s="12">
+        <v>3.841E-2</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>-8.6870000000000003E-2</v>
+      </c>
+      <c r="R4" s="11">
+        <v>3.0300000000000001E-3</v>
+      </c>
+      <c r="S4" s="12">
+        <v>3.9550000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C5" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2.432980734E-4</v>
+      </c>
+      <c r="F5" s="11">
+        <v>-9.9111578319999901E-5</v>
+      </c>
+      <c r="G5" s="12">
+        <v>-1.02010781699999E-4</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0</v>
+      </c>
+      <c r="N5" s="10">
+        <v>0</v>
+      </c>
+      <c r="O5" s="11">
+        <v>0</v>
+      </c>
+      <c r="P5" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>0</v>
+      </c>
+      <c r="R5" s="11">
+        <v>0</v>
+      </c>
+      <c r="S5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C6" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="6">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E6" s="10">
+        <v>9.0455600479999898E-2</v>
+      </c>
+      <c r="F6" s="11">
+        <v>2.6615819139999899E-3</v>
+      </c>
+      <c r="G6" s="12">
+        <v>-3.3058261829999901E-2</v>
+      </c>
+      <c r="H6" s="10">
+        <v>9.3962379999999998E-2</v>
+      </c>
+      <c r="I6" s="11">
+        <v>3.2812399999999999E-3</v>
+      </c>
+      <c r="J6" s="12">
+        <v>-1.647935E-2</v>
+      </c>
+      <c r="K6" s="10">
+        <v>9.1398489999999999E-2</v>
+      </c>
+      <c r="L6" s="11">
+        <v>1.68622E-3</v>
+      </c>
+      <c r="M6" s="12">
+        <v>-1.6253739999999999E-2</v>
+      </c>
+      <c r="N6" s="10">
+        <v>8.3820000000000006E-2</v>
+      </c>
+      <c r="O6" s="11">
+        <v>1.48E-3</v>
+      </c>
+      <c r="P6" s="12">
+        <v>-3.841E-2</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>8.6870000000000003E-2</v>
+      </c>
+      <c r="R6" s="11">
+        <v>3.0300000000000001E-3</v>
+      </c>
+      <c r="S6" s="12">
+        <v>-3.9550000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C7" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="6">
         <v>4</v>
       </c>
+      <c r="E7" s="10">
+        <v>0.1820402022</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1.1632074960000001E-2</v>
+      </c>
+      <c r="G7" s="12">
+        <v>-6.59675284999999E-2</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.19238967000000001</v>
+      </c>
+      <c r="I7" s="11">
+        <v>1.34532E-2</v>
+      </c>
+      <c r="J7" s="12">
+        <v>-3.3451439999999999E-2</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0.18233157999999999</v>
+      </c>
+      <c r="L7" s="11">
+        <v>6.7462499999999996E-3</v>
+      </c>
+      <c r="M7" s="12">
+        <v>-3.24283E-2</v>
+      </c>
+      <c r="N7" s="10">
+        <v>0.16722000000000001</v>
+      </c>
+      <c r="O7" s="11">
+        <v>5.9300000000000004E-3</v>
+      </c>
+      <c r="P7" s="12">
+        <v>-7.6630000000000004E-2</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>0.17915</v>
+      </c>
+      <c r="R7" s="11">
+        <v>1.2529999999999999E-2</v>
+      </c>
+      <c r="S7" s="12">
+        <v>-8.1180000000000002E-2</v>
+      </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C3">
-        <v>1.4</v>
-      </c>
-      <c r="D3">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C8" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="D8" s="6">
+        <v>6</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.287744478299999</v>
+      </c>
+      <c r="F8" s="11">
+        <v>2.882433174E-2</v>
+      </c>
+      <c r="G8" s="12">
+        <v>-0.1049572522</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0.29430118</v>
+      </c>
+      <c r="I8" s="11">
+        <v>3.0932299999999999E-2</v>
+      </c>
+      <c r="J8" s="12">
+        <v>-5.0821030000000003E-2</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0.27233070999999998</v>
+      </c>
+      <c r="L8" s="11">
+        <v>1.5183510000000001E-2</v>
+      </c>
+      <c r="M8" s="12">
+        <v>-4.8444859999999999E-2</v>
+      </c>
+      <c r="N8" s="10">
+        <v>0.24981</v>
+      </c>
+      <c r="O8" s="11">
+        <v>1.336E-2</v>
+      </c>
+      <c r="P8" s="12">
+        <v>-0.11448999999999999</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>0.27589000000000002</v>
+      </c>
+      <c r="R8" s="11">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="S8" s="12">
+        <v>-0.12464</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C9" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="D9" s="6">
+        <v>-2</v>
+      </c>
+      <c r="E9" s="10">
+        <v>-7.8373750869999897E-2</v>
+      </c>
+      <c r="F9" s="11">
+        <v>5.3604942029999896E-3</v>
+      </c>
+      <c r="G9" s="12">
+        <v>3.2273827079999901E-2</v>
+      </c>
+      <c r="H9" s="10">
+        <v>-9.1128520000000005E-2</v>
+      </c>
+      <c r="I9" s="11">
+        <v>3.18228E-3</v>
+      </c>
+      <c r="J9" s="12">
+        <v>2.4294969999999999E-2</v>
+      </c>
+      <c r="K9" s="10">
+        <v>-8.9748110000000006E-2</v>
+      </c>
+      <c r="L9" s="11">
+        <v>2.96708E-3</v>
+      </c>
+      <c r="M9" s="12">
+        <v>2.415074E-2</v>
+      </c>
+      <c r="N9" s="10">
+        <v>-8.4959999999999994E-2</v>
+      </c>
+      <c r="O9" s="11">
+        <v>2.4099999999999998E-3</v>
+      </c>
+      <c r="P9" s="12">
+        <v>4.4240000000000002E-2</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>-8.6300000000000002E-2</v>
+      </c>
+      <c r="R9" s="11">
+        <v>3.0100000000000001E-3</v>
+      </c>
+      <c r="S9" s="12">
+        <v>4.4609999999999997E-2</v>
+      </c>
+      <c r="U9" s="16"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C10" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="D10" s="6">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>-2.1729999999999999E-2</v>
-      </c>
-      <c r="F3">
-        <v>7.2000000000000005E-4</v>
-      </c>
+      <c r="E10" s="10">
+        <v>4.4096286320000003E-5</v>
+      </c>
+      <c r="F10" s="11">
+        <v>2.7948900379999898E-3</v>
+      </c>
+      <c r="G10" s="12">
+        <v>-1.62628158899999E-5</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+      <c r="K10" s="10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0</v>
+      </c>
+      <c r="M10" s="12">
+        <v>0</v>
+      </c>
+      <c r="N10" s="10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="11">
+        <v>0</v>
+      </c>
+      <c r="P10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>0</v>
+      </c>
+      <c r="R10" s="11">
+        <v>0</v>
+      </c>
+      <c r="S10" s="12">
+        <v>0</v>
+      </c>
+      <c r="U10" s="16"/>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C4">
-        <v>1.4</v>
-      </c>
-      <c r="D4">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C11" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="D11" s="6">
         <v>2</v>
       </c>
-      <c r="E4">
-        <v>7.9979999999999996E-2</v>
-      </c>
-      <c r="F4">
-        <v>2.2100000000000002E-3</v>
-      </c>
+      <c r="E11" s="10">
+        <v>7.8448547470000005E-2</v>
+      </c>
+      <c r="F11" s="11">
+        <v>5.3606124450000002E-3</v>
+      </c>
+      <c r="G11" s="12">
+        <v>-3.2301849270000002E-2</v>
+      </c>
+      <c r="H11" s="10">
+        <v>9.1128520000000005E-2</v>
+      </c>
+      <c r="I11" s="11">
+        <v>3.18228E-3</v>
+      </c>
+      <c r="J11" s="12">
+        <v>-2.4294969999999999E-2</v>
+      </c>
+      <c r="K11" s="10">
+        <v>8.9748110000000006E-2</v>
+      </c>
+      <c r="L11" s="11">
+        <v>2.96708E-3</v>
+      </c>
+      <c r="M11" s="12">
+        <v>-2.415074E-2</v>
+      </c>
+      <c r="N11" s="10">
+        <v>8.4959999999999994E-2</v>
+      </c>
+      <c r="O11" s="11">
+        <v>2.4099999999999998E-3</v>
+      </c>
+      <c r="P11" s="12">
+        <v>-4.4240000000000002E-2</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>8.6300000000000002E-2</v>
+      </c>
+      <c r="R11" s="11">
+        <v>3.0100000000000001E-3</v>
+      </c>
+      <c r="S11" s="12">
+        <v>-4.4609999999999997E-2</v>
+      </c>
+      <c r="U11" s="16"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C5">
-        <v>1.4</v>
-      </c>
-      <c r="D5">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C12" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="D12" s="6">
         <v>4</v>
       </c>
-      <c r="E5">
-        <v>0.18079999999999999</v>
-      </c>
-      <c r="F5">
-        <v>1.077E-2</v>
-      </c>
+      <c r="E12" s="10">
+        <v>0.15695832039999899</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1.3303094160000001E-2</v>
+      </c>
+      <c r="G12" s="12">
+        <v>-6.4665758739999898E-2</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0.18229492999999999</v>
+      </c>
+      <c r="I12" s="11">
+        <v>1.27473E-2</v>
+      </c>
+      <c r="J12" s="12">
+        <v>-4.8333729999999998E-2</v>
+      </c>
+      <c r="K12" s="10">
+        <v>0.17876642000000001</v>
+      </c>
+      <c r="L12" s="11">
+        <v>1.1834610000000001E-2</v>
+      </c>
+      <c r="M12" s="12">
+        <v>-4.8183829999999997E-2</v>
+      </c>
+      <c r="N12" s="10">
+        <v>0.16930999999999999</v>
+      </c>
+      <c r="O12" s="11">
+        <v>9.6200000000000001E-3</v>
+      </c>
+      <c r="P12" s="12">
+        <v>-8.8270000000000001E-2</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>0.17458000000000001</v>
+      </c>
+      <c r="R12" s="11">
+        <v>1.221E-2</v>
+      </c>
+      <c r="S12" s="12">
+        <v>-8.9730000000000004E-2</v>
+      </c>
+      <c r="U12" s="16"/>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C6">
-        <v>1.4</v>
-      </c>
-      <c r="D6">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C13" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="D13" s="6">
         <v>6</v>
       </c>
-      <c r="E6">
-        <v>0.27971000000000001</v>
-      </c>
-      <c r="F6">
-        <v>2.6239999999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C7">
-        <v>1.4</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>0.37605</v>
-      </c>
-      <c r="F7">
-        <v>4.8419999999999998E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C8">
-        <v>1.4</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>0.46911999999999998</v>
-      </c>
-      <c r="F8">
-        <v>7.7030000000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C9">
-        <v>1.6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>-2.1569999999999999E-2</v>
-      </c>
-      <c r="F9">
-        <v>7.1000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C10">
-        <v>1.6</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="F10">
-        <v>2.3600000000000001E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C11">
-        <v>1.6</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>0.19646</v>
-      </c>
-      <c r="F11">
-        <v>1.162E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C12">
-        <v>1.6</v>
-      </c>
-      <c r="D12">
-        <v>6</v>
-      </c>
-      <c r="E12">
-        <v>0.30284</v>
-      </c>
-      <c r="F12">
-        <v>2.8309999999999998E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C13">
-        <v>1.6</v>
-      </c>
-      <c r="D13">
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <v>0.40627000000000002</v>
-      </c>
-      <c r="F13">
-        <v>5.2200000000000003E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C14">
-        <v>1.6</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>0.50527999999999995</v>
-      </c>
-      <c r="F14">
-        <v>8.2869999999999999E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C15">
-        <v>1.8</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>-2.0740000000000001E-2</v>
-      </c>
-      <c r="F15">
-        <v>-9.1199999999999996E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C16">
-        <v>1.8</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>6.7320000000000005E-2</v>
-      </c>
-      <c r="F16">
-        <v>4.827E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C17">
-        <v>1.8</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17">
-        <v>5.654E-2</v>
-      </c>
-      <c r="F17">
-        <v>0.45623000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C18">
-        <v>1.8</v>
-      </c>
-      <c r="D18">
-        <v>6</v>
-      </c>
-      <c r="E18">
-        <v>-0.22012000000000001</v>
-      </c>
-      <c r="F18">
-        <v>1.63564</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C19">
-        <v>1.8</v>
-      </c>
-      <c r="D19">
-        <v>8</v>
-      </c>
-      <c r="E19">
-        <v>-0.98497999999999997</v>
-      </c>
-      <c r="F19">
-        <v>3.9763799999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C20">
-        <v>1.8</v>
-      </c>
-      <c r="D20">
-        <v>10</v>
-      </c>
-      <c r="E20">
-        <v>-2.51145</v>
-      </c>
-      <c r="F20">
-        <v>7.8276000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>-2.1239999999999998E-2</v>
-      </c>
-      <c r="F21">
-        <v>-3.6800000000000001E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>7.1139999999999995E-2</v>
-      </c>
-      <c r="F22">
-        <v>4.5560000000000003E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23">
-        <v>8.0939999999999998E-2</v>
-      </c>
-      <c r="F23">
-        <v>0.37733</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>6</v>
-      </c>
-      <c r="E24">
-        <v>-0.11745999999999999</v>
-      </c>
-      <c r="F24">
-        <v>1.2843899999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>8</v>
-      </c>
-      <c r="E25">
-        <v>-0.68852999999999998</v>
-      </c>
-      <c r="F25">
-        <v>3.0362100000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>10</v>
-      </c>
-      <c r="E26">
-        <v>-1.85893</v>
-      </c>
-      <c r="F26">
-        <v>5.8780200000000002</v>
-      </c>
+      <c r="E13" s="13">
+        <v>0.2332899776</v>
+      </c>
+      <c r="F13" s="14">
+        <v>2.6532369959999899E-2</v>
+      </c>
+      <c r="G13" s="15">
+        <v>-9.5416863530000007E-2</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0.27270199000000001</v>
+      </c>
+      <c r="I13" s="14">
+        <v>2.8662130000000001E-2</v>
+      </c>
+      <c r="J13" s="15">
+        <v>-7.2002189999999994E-2</v>
+      </c>
+      <c r="K13" s="13">
+        <v>0.26633195999999998</v>
+      </c>
+      <c r="L13" s="14">
+        <v>2.6501830000000001E-2</v>
+      </c>
+      <c r="M13" s="15">
+        <v>-7.1982169999999998E-2</v>
+      </c>
+      <c r="N13" s="13">
+        <v>0.25245000000000001</v>
+      </c>
+      <c r="O13" s="14">
+        <v>2.1569999999999999E-2</v>
+      </c>
+      <c r="P13" s="15">
+        <v>-0.13188</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>0.26401000000000002</v>
+      </c>
+      <c r="R13" s="14">
+        <v>2.775E-2</v>
+      </c>
+      <c r="S13" s="15">
+        <v>-0.13513</v>
+      </c>
+      <c r="U13" s="16"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliobotero/Dropbox/SUAVE/SUAVE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8038BC7D-436B-9745-9B08-69547D4EA486}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE807FB0-4458-2B45-AA8F-B95880114890}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="500" windowWidth="28900" windowHeight="20500" activeTab="1" xr2:uid="{046A4ECD-B913-D647-AEA1-3714B5C9A77F}"/>
+    <workbookView xWindow="5600" yWindow="500" windowWidth="28900" windowHeight="20500" activeTab="1" xr2:uid="{046A4ECD-B913-D647-AEA1-3714B5C9A77F}"/>
   </bookViews>
   <sheets>
     <sheet name="B_T_W only" sheetId="1" r:id="rId1"/>
@@ -24011,8 +24011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB84D9B7-4798-7E4F-A973-934ACEE97A60}">
   <dimension ref="B1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="P57" sqref="P57"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliobotero/Dropbox/SUAVE/SUAVE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE807FB0-4458-2B45-AA8F-B95880114890}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CFEE6D-2289-F84E-B399-4DC49CB1F8E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="500" windowWidth="28900" windowHeight="20500" activeTab="1" xr2:uid="{046A4ECD-B913-D647-AEA1-3714B5C9A77F}"/>
+    <workbookView xWindow="4700" yWindow="500" windowWidth="28900" windowHeight="20500" activeTab="1" xr2:uid="{046A4ECD-B913-D647-AEA1-3714B5C9A77F}"/>
   </bookViews>
   <sheets>
     <sheet name="B_T_W only" sheetId="1" r:id="rId1"/>
@@ -24011,8 +24011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB84D9B7-4798-7E4F-A973-934ACEE97A60}">
   <dimension ref="B1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
